--- a/output/chunk_15_21-02-2024.xlsx
+++ b/output/chunk_15_21-02-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,20 +842,16 @@
       <c r="B6" t="n">
         <v>1493179</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>305319319842</t>
-        </is>
+      <c r="C6" t="n">
+        <v>305319319842</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>['https://i.ebayimg.com/00/s/NDgwWDY0MA==/z/lXwAAOSwKCJlgEcJ/$_1.JPG?set_id=880000500F']</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>33596</t>
-        </is>
+      <c r="E6" t="n">
+        <v>33596</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -905,10 +901,8 @@
         </is>
       </c>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
+      <c r="V6" t="n">
+        <v>1993</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
@@ -916,12 +910,1404 @@
           <t>F150      1993 Chassis ECM 1493179</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>76.95</t>
-        </is>
+      <c r="Y6" t="n">
+        <v>76.95</v>
       </c>
       <c r="Z6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>1493202</v>
+      </c>
+      <c r="C7" t="n">
+        <v>362946542336</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTYwMFgxNjAw/z/c9oAAOSw8uZj9xLr/$_57.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>179850</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vehicle Parts &amp; Accessories:Car Parts &amp; Accessories:Exterior Parts &amp; Accessories:Doors, Boot Lids &amp; Hatches:Doors &amp; Door Skins</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1337205, 4C16 V22401 AA, 4C16V22400AA</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Transit</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Robust Car Parts</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>['Front']</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Door Handle</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>462</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>FOR FORD TRANSIT MK6 MK7 FRONT DOOR HANDLE LEFT SIDE N/S PASSENGER SIDE 1493202</t>
+        </is>
+      </c>
+      <c r="Y7" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>[{'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2000', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2001', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2003', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2002', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2004', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2006', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2006', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2003', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2000', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2004', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2005', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2002', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2005', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2001', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2001', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2003', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2000', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2005', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2004', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2002', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2006', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 55KW 75HP D3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2000', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2001', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2002', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2004', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2004', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2001', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2005', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2002', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2005', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2000', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2006', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2003', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2003', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2006', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2001', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2003', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2002', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2006', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2000', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2005', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2004', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 63KW 86HP F3FA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2002', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2002', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2003', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2006', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2003', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2006', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2005', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2004', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2005', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2000', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2000', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2004', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2001', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2001', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2001', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2005', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2006', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2003', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2000', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2004', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2002', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 DI', 'Engine': '1998cc 74KW 100HP ABFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2006', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 TDCi', 'Engine': '1998cc 92KW 125HP FIFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2002', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 TDCi', 'Engine': '1998cc 92KW 125HP FIFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2006', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 TDCi', 'Engine': '1998cc 92KW 125HP FIFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2002', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 TDCi', 'Engine': '1998cc 92KW 125HP FIFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2004', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 TDCi', 'Engine': '1998cc 92KW 125HP FIFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2003', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 TDCi', 'Engine': '1998cc 92KW 125HP FIFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2003', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 TDCi', 'Engine': '1998cc 92KW 125HP FIFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2005', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.0 TDCi', 'Engine': '1998cc 92KW 125HP FIFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2004', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 TDCi', 'Engine': '1998cc 92KW 125HP FIFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2005', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.0 TDCi', 'Engine': '1998cc 92KW 125HP FIFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2003', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 TDCi', 'Engine': '1998cc 92KW 125HP FIFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2002', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 TDCi', 'Engine': '1998cc 92KW 125HP FIFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2005', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 TDCi', 'Engine': '1998cc 92KW 125HP FIFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2004', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 TDCi', 'Engine': '1998cc 92KW 125HP FIFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2006', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'FWD -- FM_ _,FN_ _', 'Cars Type': '2.0 TDCi', 'Engine': '1998cc 92KW 125HP FIFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2012', 'Variant': 'Diesel Bus', 'BodyStyle': 'RWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 100KW 135HP USRA;USRB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2014', 'Variant': 'Diesel Bus', 'BodyStyle': 'RWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 100KW 135HP USRA;USRB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2013', 'Variant': 'Diesel Bus', 'BodyStyle': 'RWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 100KW 135HP USRA;USRB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2011', 'Variant': 'Diesel Bus', 'BodyStyle': 'RWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 100KW 135HP USRA;USRB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2012', 'Variant': 'Diesel Van', 'BodyStyle': 'RWD -- FA_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 100KW 136HP USRA;USRB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2014', 'Variant': 'Diesel Van', 'BodyStyle': 'RWD -- FA_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 100KW 136HP USRA;USRB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2013', 'Variant': 'Diesel Van', 'BodyStyle': 'RWD -- FA_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 100KW 136HP USRA;USRB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2011', 'Variant': 'Diesel Van', 'BodyStyle': 'RWD -- FA_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 100KW 136HP USRA;USRB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2008', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 103KW 140HP PGFA;PGFB;UHFA;UHFB;UHFC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2010', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 103KW 140HP PGFA;PGFB;UHFA;UHFB;UHFC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2013', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 103KW 140HP PGFA;PGFB;UHFA;UHFB;UHFC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2008', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 103KW 140HP PGFA;PGFB;UHFA;UHFB;UHFC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2007', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 103KW 140HP PGFA;PGFB;UHFA;UHFB;UHFC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2013', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 103KW 140HP PGFA;PGFB;UHFA;UHFB;UHFC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2010', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 103KW 140HP PGFA;PGFB;UHFA;UHFB;UHFC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2012', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 103KW 140HP PGFA;PGFB;UHFA;UHFB;UHFC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2011', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 103KW 140HP PGFA;PGFB;UHFA;UHFB;UHFC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2014', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 103KW 140HP PGFA;PGFB;UHFA;UHFB;UHFC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2007', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 103KW 140HP PGFA;PGFB;UHFA;UHFB;UHFC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2009', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 103KW 140HP PGFA;PGFB;UHFA;UHFB;UHFC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2009', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 103KW 140HP PGFA;PGFB;UHFA;UHFB;UHFC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2014', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 103KW 140HP PGFA;PGFB;UHFA;UHFB;UHFC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2012', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 103KW 140HP PGFA;PGFB;UHFA;UHFB;UHFC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2011', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 103KW 140HP PGFA;PGFB;UHFA;UHFB;UHFC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2014', 'Variant': 'Diesel Van', 'BodyStyle': 'RWD -- FA_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 114KW 155HP CVRA;CVRB;CVRC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2013', 'Variant': 'Diesel Van', 'BodyStyle': 'RWD -- FA_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 114KW 155HP CVRA;CVRB;CVRC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2011', 'Variant': 'Diesel Van', 'BodyStyle': 'RWD -- FA_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 114KW 155HP CVRA;CVRB;CVRC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2012', 'Variant': 'Diesel Van', 'BodyStyle': 'RWD -- FA_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 114KW 155HP CVRA;CVRB;CVRC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2010', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 63KW 85HP P8FA;P8FB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2008', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 63KW 85HP P8FA;P8FB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2007', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 63KW 85HP P8FA;P8FB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2011', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 63KW 85HP P8FA;P8FB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2007', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 63KW 85HP P8FA;P8FB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2009', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 63KW 85HP P8FA;P8FB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2009', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 63KW 85HP P8FA;P8FB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2006', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 63KW 85HP P8FA;P8FB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2012', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 63KW 85HP P8FA;P8FB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2013', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 63KW 85HP P8FA;P8FB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2014', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 63KW 85HP P8FA;P8FB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2013', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 63KW 85HP P8FA;P8FB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2011', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 63KW 85HP P8FA;P8FB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2010', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 63KW 85HP P8FA;P8FB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2008', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 63KW 85HP P8FA;P8FB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2006', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 63KW 85HP P8FA;P8FB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2014', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 63KW 85HP P8FA;P8FB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2012', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 63KW 85HP P8FA;P8FB'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2014', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 74KW 100HP DRFA;DRFB;DRFC;DRFD;DRFE'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2013', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 74KW 100HP DRFA;DRFB;DRFC;DRFD;DRFE'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2014', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 74KW 100HP DRFA;DRFB;DRFC;DRFD;DRFE'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2013', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 74KW 100HP DRFA;DRFB;DRFC;DRFD;DRFE'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2011', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 74KW 100HP DRFA;DRFB;DRFC;DRFD;DRFE'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2012', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 74KW 100HP DRFA;DRFB;DRFC;DRFD;DRFE'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2012', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 74KW 100HP DRFA;DRFB;DRFC;DRFD;DRFE'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2011', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 74KW 100HP DRFA;DRFB;DRFC;DRFD;DRFE'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2013', 'Variant': 'Diesel Bus', 'BodyStyle': 'RWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 74KW 100HP DRRA;DRRB;DRRC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2011', 'Variant': 'Diesel Bus', 'BodyStyle': 'RWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 74KW 100HP DRRA;DRRB;DRRC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2014', 'Variant': 'Diesel Van', 'BodyStyle': 'RWD -- FA_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 74KW 100HP DRRA;DRRB;DRRC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2012', 'Variant': 'Diesel Van', 'BodyStyle': 'RWD -- FA_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 74KW 100HP DRRA;DRRB;DRRC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2014', 'Variant': 'Diesel Bus', 'BodyStyle': 'RWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 74KW 100HP DRRA;DRRB;DRRC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2011', 'Variant': 'Diesel Van', 'BodyStyle': 'RWD -- FA_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 74KW 100HP DRRA;DRRB;DRRC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2012', 'Variant': 'Diesel Bus', 'BodyStyle': 'RWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 74KW 100HP DRRA;DRRB;DRRC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2013', 'Variant': 'Diesel Van', 'BodyStyle': 'RWD -- FA_ _', 'Cars Type': '2.2 TDCi RWD', 'Engine': '2198cc 74KW 100HP DRRA;DRRB;DRRC'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2012', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 81KW 110HP QVFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2007', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 81KW 110HP QVFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2011', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 81KW 110HP QVFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2007', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 81KW 110HP QVFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2008', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 81KW 110HP QVFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2012', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 81KW 110HP QVFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2013', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 81KW 110HP QVFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2014', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 81KW 110HP QVFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2006', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 81KW 110HP QVFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2006', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 81KW 110HP QVFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2014', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 81KW 110HP QVFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2010', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 81KW 110HP QVFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2009', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 81KW 110HP QVFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2013', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 81KW 110HP QVFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2008', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 81KW 110HP QVFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2011', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 81KW 110HP QVFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2009', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 81KW 110HP QVFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2010', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 81KW 110HP QVFA'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2009', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 85KW 115HP SRFA;SRFB;SRFC;SRFD;SRFE'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2012', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 85KW 115HP SRFA;SRFB;SRFC;SRFD;SRFE'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2008', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 85KW 115HP SRFA;SRFB;SRFC;SRFD;SRFE'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2013', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 85KW 115HP SRFA;SRFB;SRFC;SRFD;SRFE'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2011', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 85KW 115HP SRFA;SRFB;SRFC;SRFD;SRFE'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2009', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 85KW 115HP SRFA;SRFB;SRFC;SRFD;SRFE'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2012', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 85KW 115HP SRFA;SRFB;SRFC;SRFD;SRFE'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2011', 'Variant': 'Diesel Van', 'BodyStyle': 'FWD -- FA_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 85KW 115HP SRFA;SRFB;SRFC;SRFD;SRFE'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2014', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi', 'Engine': '2198cc 85KW 115HP SRFA;SRFB;SRFC;SRFD;SRFE'}, {'Car Make': 'Ford', 'Model': 'Transit', 'Cars Year': '2010', 'Variant': 'Diesel Bus', 'BodyStyle': 'FWD -- FB_ _,FC_ _,FD_ _,FS_ _,FZ_ _', 'Cars Type': '2.2 TDCi',</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>1493204</v>
+      </c>
+      <c r="C8" t="n">
+        <v>221968138141</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTIwMFgxNjAw/z/UmcAAOSwnipWbgA2/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>26261</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Business &amp; Industrial:Other Business &amp; Industrial</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Honda</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Genuine honda part  23463-733-003 COLLAR, IDLE GEAR (Honda Code 1493204)</t>
+        </is>
+      </c>
+      <c r="Y8" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>1493222</v>
+      </c>
+      <c r="C9" t="n">
+        <v>195617338320</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NjAwWDgwMA==/z/R9AAAOSw~mtj9oqP/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>179684</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Wheels, Tires &amp; Parts:Other Wheel &amp; Tire Parts</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Kia</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>5XYKT3A67EG442599</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>560-74685A</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Does Not Apply</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Sorento</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="n">
+        <v>2014</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Wheel 17x7 Alloy With Fits 14-15 SORENTO 1493222</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>[{'Year': '2015', 'Make': 'Kia', 'Model': 'Sorento', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.3L 3342CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2015', 'Make': 'Kia', 'Model': 'Sorento', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '3.3L 3342CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2015', 'Make': 'Kia', 'Model': 'Sorento', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '2.4L 2359CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2015', 'Make': 'Kia', 'Model': 'Sorento', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.3L 3342CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2015', 'Make': 'Kia', 'Model': 'Sorento', 'Trim': 'SX Sport Utility 4-Door', 'Engine': '3.3L 3342CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2014', 'Make': 'Kia', 'Model': 'Sorento', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.3L 3342CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2014', 'Make': 'Kia', 'Model': 'Sorento', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '3.3L 3342CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2014', 'Make': 'Kia', 'Model': 'Sorento', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '2.4L 2359CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2014', 'Make': 'Kia', 'Model': 'Sorento', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.3L 3342CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2014', 'Make': 'Kia', 'Model': 'Sorento', 'Trim': 'SX Sport Utility 4-Door', 'Engine': '3.3L 3342CC V6 GAS DOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>1493223</v>
+      </c>
+      <c r="C10" t="n">
+        <v>186209366011</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTk3WDU5MA==/z/VdUAAOSwBbBleveD/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>262243</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Auto &amp; Motorrad: Teile:Autoteile &amp; Zubehör:Getriebe &amp; Antriebstechnik:Antriebswellen</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>39</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>218216 GSP Antriebswelle für FORD</t>
+        </is>
+      </c>
+      <c r="Y10" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>[{'Make': 'Ford', 'Model': 'B-Max', 'Platform': 'JK', 'Type': '1.4 LPG', 'Production Period': '2013/08-2023/12', 'Engine': '1388 ccm, 63 KW, 86 PS'}, {'Make': 'Ford', 'Model': 'B-Max', 'Platform': 'JK', 'Type': '1.4 LPG', 'Production Period': '2013/08-2023/12', 'Engine': '1388 ccm, 66 KW, 90 PS'}, {'Make': 'Ford', 'Model': 'B-Max', 'Platform': 'JK', 'Type': '1.4', 'Production Period': '2012/10-2023/12', 'Engine': '1388 ccm, 66 KW, 90 PS'}, {'Make': 'Ford', 'Model': 'Fiesta V', 'Platform': 'JD, JH', 'Type': '1.25 16V', 'Production Period': '2003/03-2008/06', 'Engine': '1242 ccm, 51 KW, 70 PS'}, {'Make': 'Ford', 'Model': 'Fiesta V', 'Platform': 'JD, JH', 'Type': '1.25 16V', 'Production Period': '2002/05-2008/06', 'Engine': '1242 ccm, 55 KW, 75 PS'}, {'Make': 'Ford', 'Model': 'Fiesta V', 'Platform': 'JD, JH', 'Type': '1.3', 'Production Period': '2001/11-2008/06', 'Engine': '1299 ccm, 44 KW, 60 PS'}, {'Make': 'Ford', 'Model': 'Fiesta V', 'Platform': 'JD, JH', 'Type': '1.3', 'Production Period': '2001/11-2008/06', 'Engine': '1299 ccm, 51 KW, 69 PS'}, {'Make': 'Ford', 'Model': 'Fiesta V', 'Platform': 'JD, JH', 'Type': '1.4 16V', 'Production Period': '2001/11-2008/06', 'Engine': '1388 ccm, 59 KW, 80 PS'}, {'Make': 'Ford', 'Model': 'Fiesta V', 'Platform': 'JD, JH', 'Type': '1.4 TDCi', 'Production Period': '2001/11-2008/06', 'Engine': '1399 ccm, 50 KW, 68 PS'}, {'Make': 'Ford', 'Model': 'Fiesta V', 'Platform': 'JD, JH', 'Type': '1.6 TDCi', 'Production Period': '2004/11-2008/06', 'Engine': '1560 ccm, 66 KW, 90 PS'}, {'Make': 'Ford', 'Model': 'Fiesta V', 'Platform': 'JD, JH', 'Type': 'ST150', 'Production Period': '2005/03-2008/06', 'Engine': '1999 ccm, 110 KW, 150 PS'}, {'Make': 'Ford', 'Model': 'Fiesta V Van', 'Platform': '--', 'Type': '1.3', 'Production Period': '2002/05-2008/08', 'Engine': '1299 ccm, 44 KW, 60 PS'}, {'Make': 'Ford', 'Model': 'Fiesta V Van', 'Platform': '--', 'Type': '1.3', 'Production Period': '2003/10-2005/07', 'Engine': '1299 ccm, 51 KW, 69 PS'}, {'Make': 'Ford', 'Model': 'Fiesta V Van', 'Platform': '--', 'Type': '1.4', 'Production Period': '2002/05-2005/09', 'Engine': '1388 ccm, 59 KW, 80 PS'}, {'Make': 'Ford', 'Model': 'Fiesta V Van', 'Platform': '--', 'Type': '1.4 TDCi', 'Production Period': '2003/10-2010/12', 'Engine': '1399 ccm, 50 KW, 68 PS'}, {'Make': 'Ford', 'Model': 'Fiesta V Van', 'Platform': '--', 'Type': '1.6 TDCi', 'Production Period': '2007/04-2009/09', 'Engine': '1560 ccm, 66 KW, 90 PS'}, {'Make': 'Ford', 'Model': 'Fiesta VI', 'Platform': 'CB1, CCN', 'Type': '1.25', 'Production Period': '2008/06-2017/04', 'Engine': '1242 ccm, 44 KW, 60 PS'}, {'Make': 'Ford', 'Model': 'Fiesta VI', 'Platform': 'CB1, CCN', 'Type': '1.25', 'Production Period': '2008/06-2017/04', 'Engine': '1242 ccm, 60 KW, 82 PS'}, {'Make': 'Ford', 'Model': 'Fiesta VI', 'Platform': 'CB1, CCN', 'Type': '1.4 LPG', 'Production Period': '2009/01-2017/04', 'Engine': '1388 ccm, 71 KW, 97 PS'}, {'Make': 'Ford', 'Model': 'Fiesta VI', 'Platform': 'CB1, CCN', 'Type': '1.4', 'Production Period': '2008/06-2012/12', 'Engine': '1388 ccm, 71 KW, 97 PS'}, {'Make': 'Ford', 'Model': 'Fiesta VI', 'Platform': 'CB1, CCN', 'Type': '1.4 TDCi', 'Production Period': '2009/01-2012/09', 'Engine': '1399 ccm, 50 KW, 68 PS'}, {'Make': 'Ford', 'Model': 'Fiesta VI', 'Platform': 'CB1, CCN', 'Type': '1.4 TDCi', 'Production Period': '2010/07-2012/09', 'Engine': '1399 ccm, 51 KW, 70 PS'}, {'Make': 'Ford', 'Model': 'Fiesta VI', 'Platform': 'CB1, CCN', 'Type': '1.5 TDCi', 'Production Period': '2012/09-2017/04', 'Engine': '1499 ccm, 55 KW, 75 PS'}, {'Make': 'Ford', 'Model': 'Fiesta VI', 'Platform': 'CB1, CCN', 'Type': '1.5 TDCi', 'Production Period': '2015/05-2017/04', 'Engine': '1499 ccm, 70 KW, 95 PS'}, {'Make': 'Ford', 'Model': 'Fiesta VI', 'Platform': 'CB1, CCN', 'Type': '1.0', 'Production Period': '2013/01-2017/04', 'Engine': '998 ccm, 48 KW, 65 PS'}, {'Make': 'Ford', 'Model': 'Fiesta VI', 'Platform': 'CB1, CCN', 'Type': '1.0', 'Production Period': '2012/10-2017/04', 'Engine': '998 ccm, 59 KW, 80 PS'}, {'Make': 'Ford', 'Model': 'Fiesta VI Van', 'Platform': '--', 'Type': '1.25', 'Production Period': '2008/08-2012/12', 'Engine': '1242 ccm, 44 KW, 60 PS'}, {'Make': 'Ford', 'Model': 'Fiesta VI Van', 'Platform': '--', 'Type': '1.25', 'Production Period': '2009/01-2017/12', 'Engine': '1242 ccm, 60 KW, 82 PS'}, {'Make': 'Ford', 'Model': 'Fiesta VI Van', 'Platform': '--', 'Type': '1.4 TDCi', 'Production Period': '2009/01-2017/12', 'Engine': '1399 ccm, 50 KW, 68 PS'}, {'Make': 'Ford', 'Model': 'Fiesta VI Van', 'Platform': '--', 'Type': '1.4 TDCi', 'Production Period': '2010/07-2017/12', 'Engine': '1399 ccm, 51 KW, 70 PS'}, {'Make': 'Ford', 'Model': 'Fiesta VI Van', 'Platform': '--', 'Type': '1.5 TDCi', 'Production Period': '2015/05-2017/12', 'Engine': '1499 ccm, 70 KW, 95 PS'}, {'Make': 'Ford', 'Model': 'Fiesta VI Van', 'Platform': '--', 'Type': '1.0', 'Production Period': '2013/01-2017/12', 'Engine': '998 ccm, 48 KW, 65 PS'}, {'Make': 'Ford', 'Model': 'Fiesta VI Van', 'Platform': '--', 'Type': '1.0', 'Production Period': '2012/10-2017/12', 'Engine': '998 ccm, 59 KW, 80 PS'}, {'Make': 'Ford', 'Model': 'Fusion', 'Platform': 'JU', 'Type': '1.25', 'Production Period': '2004/08-2012/12', 'Engine': '1242 ccm, 55 KW, 75 PS'}, {'Make': 'Ford', 'Model': 'Fusion', 'Platform': 'JU', 'Type': '1.4', 'Production Period': '2002/08-2012/12', 'Engine': '1388 ccm, 59 KW, 80 PS'}, {'Make': 'Ford', 'Model': 'Fusion', 'Platform': 'JU', 'Type': '1.4 LPG', 'Production Period': '2010/01-2012/12', 'Engine': '1388 ccm, 59 KW, 80 PS'}, {'Make': 'Ford', 'Model': 'Fusion', 'Platform': 'JU', 'Type': '1.4 TDCi', 'Production Period': '2002/08-2012/12', 'Engine': '1399 ccm, 50 KW, 68 PS'}, {'Make': 'Ford', 'Model': 'Fusion', 'Platform': 'JU', 'Type': '1.6 TDCi', 'Production Period': '2004/11-2012/12', 'Engine': '1560 ccm, 66 KW, 90 PS'}, {'Make': 'Ford', 'Model': 'Fusion', 'Platform': 'JU', 'Type': '1.6', 'Production Period': '2002/08-2009/11', 'Engine': '1596 ccm, 74 KW, 100 PS'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>1493353</v>
+      </c>
+      <c r="C11" t="n">
+        <v>364612056794</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NDAwWDYwMA==/z/h7wAAOSw1lhlawis/$_57.PNG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>33558</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Auto &amp; Motorrad: Teile:Autoteile &amp; Zubehör:Luft- &amp; Kraftstoffversorgung:Drosselklappen</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Vectra A CC</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>1.8i Cat</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="n">
+        <v>61</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>HELLA 6PX008476-121 Sensor, Drosselklappenstellung für OPEL Astra, Vectra, Corsa</t>
+        </is>
+      </c>
+      <c r="Y11" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>[{'Make': 'Opel', 'Model': 'Ascona C', 'Platform': 'J82', 'Type': '1.6i Cat', 'Production Period': '1986/09-1988/08', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Ascona C', 'Platform': 'J82', 'Type': '1.6i', 'Production Period': '1987/09-1988/08', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Ascona C CC', 'Platform': 'J82', 'Type': '1.6i Cat', 'Production Period': '1986/09-1988/08', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Ascona C CC', 'Platform': 'J82', 'Type': '1.6i', 'Production Period': '1987/09-1988/08', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Astra F', 'Platform': '56, 57', 'Type': '1.4i', 'Production Period': '1991/09-1998/09', 'Engine': '1389 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Astra F', 'Platform': '56, 57', 'Type': '1.6i', 'Production Period': '1993/05-1996/07', 'Engine': '1598 ccm, 52 KW, 71 PS'}, {'Make': 'Opel', 'Model': 'Astra F', 'Platform': '56, 57', 'Type': '1.6i', 'Production Period': '1992/03-1998/09', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Astra F', 'Platform': '56, 57', 'Type': '1.8i', 'Production Period': '1992/03-1998/09', 'Engine': '1796 ccm, 66 KW, 90 PS'}, {'Make': 'Opel', 'Model': 'Astra F Cabriolet', 'Platform': '53 B', 'Type': '1.6i', 'Production Period': '1993/03-1996/08', 'Engine': '1598 ccm, 52 KW, 71 PS'}, {'Make': 'Opel', 'Model': 'Astra F Cabriolet', 'Platform': '53 B', 'Type': '1.6i', 'Production Period': '1996/01-2001/03', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Astra F Caravan', 'Platform': '51, 52', 'Type': '1.4i', 'Production Period': '1991/09-1998/01', 'Engine': '1389 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Astra F Caravan', 'Platform': '51, 52', 'Type': '1.6i', 'Production Period': '1993/05-1996/07', 'Engine': '1598 ccm, 52 KW, 71 PS'}, {'Make': 'Opel', 'Model': 'Astra F Caravan', 'Platform': '51, 52', 'Type': '1.6i', 'Production Period': '1991/09-1998/01', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Astra F Caravan', 'Platform': '51, 52', 'Type': '1.8i', 'Production Period': '1991/09-1998/01', 'Engine': '1796 ccm, 66 KW, 90 PS'}, {'Make': 'Opel', 'Model': 'Astra F CC', 'Platform': '53, 54, 58, 59', 'Type': '1.4i', 'Production Period': '1992/03-1998/01', 'Engine': '1389 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Astra F CC', 'Platform': '53, 54, 58, 59', 'Type': '1.6i', 'Production Period': '1993/05-1996/07', 'Engine': '1598 ccm, 52 KW, 71 PS'}, {'Make': 'Opel', 'Model': 'Astra F CC', 'Platform': '53, 54, 58, 59', 'Type': '1.6i', 'Production Period': '1991/09-1998/01', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Astra F CC', 'Platform': '53, 54, 58, 59', 'Type': '1.8i', 'Production Period': '1991/09-1998/01', 'Engine': '1796 ccm, 66 KW, 90 PS'}, {'Make': 'Opel', 'Model': 'Astra F Kasten/Kombi', 'Platform': 'T92', 'Type': '1.4i', 'Production Period': '1991/10-1999/01', 'Engine': '1389 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Astra F Kasten/Kombi', 'Platform': 'T92', 'Type': '1.6i', 'Production Period': '1993/02-1996/07', 'Engine': '1598 ccm, 52 KW, 71 PS'}, {'Make': 'Opel', 'Model': 'Astra F Kasten/Kombi', 'Platform': 'T92', 'Type': '1.6i', 'Production Period': '1991/10-1998/02', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Astra F Klasseic Caravan', 'Platform': 'T92', 'Type': '1.4i', 'Production Period': '1998/01-2005/01', 'Engine': '1389 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Astra F Klasseic Caravan', 'Platform': 'T92', 'Type': '1.6i', 'Production Period': '1998/01-2005/01', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Astra F Klasseic CC', 'Platform': 'T92', 'Type': '1.4i', 'Production Period': '1998/01-2002/08', 'Engine': '1389 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Astra F Klasseic CC', 'Platform': 'T92', 'Type': '1.6i', 'Production Period': '1998/01-2002/08', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Astra F Klasseic Stufenheck', 'Platform': 'T92', 'Type': '1.4i', 'Production Period': '1998/01-2002/08', 'Engine': '1389 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Astra F Klasseic Stufenheck', 'Platform': 'T92', 'Type': '1.6i', 'Production Period': '1998/01-2002/08', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Astra G Caravan', 'Platform': 'T98', 'Type': '1.6', 'Production Period': '1998/02-2000/09', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Astra G CC', 'Platform': 'F08, F48', 'Type': '1.6', 'Production Period': '1998/02-2000/09', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Astra G Kasten/Kombi', 'Platform': 'F70', 'Type': '1.6', 'Production Period': '1999/01-2000/09', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Astra G Stufenheck', 'Platform': 'T98', 'Type': '1.6', 'Production Period': '1998/09-2000/09', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Corsa A CC', 'Platform': '93, 94, 98, 99', 'Type': '1.2i', 'Production Period': '1989/09-1993/03', 'Engine': '1195 ccm, 33 KW, 45 PS'}, {'Make': 'Opel', 'Model': 'Corsa A CC', 'Platform': 'S83', 'Type': '1.3i', 'Production Period': '1986/09-1990/09', 'Engine': '1297 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Corsa A CC', 'Platform': '93, 94, 98, 99', 'Type': '1.4i', 'Production Period': '1985/01-1993/03', 'Engine': '1389 ccm, 40 KW, 54 PS'}, {'Make': 'Opel', 'Model': 'Corsa A CC', 'Platform': '93, 94, 98, 99', 'Type': '1.4i', 'Production Period': '1990/01-1993/03', 'Engine': '1389 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Corsa B', 'Platform': '73, 78, 79', 'Type': '1.4i', 'Production Period': '1993/03-2000/09', 'Engine': '1389 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Kadett E', 'Platform': '39, 49', 'Type': '1.3i Cat', 'Production Period': '1985/09-1991/08', 'Engine': '1297 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Kadett E', 'Platform': 'T85', 'Type': '1.4i', 'Production Period': '1990/01-1991/08', 'Engine': '1389 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Kadett E', 'Platform': '39, 49', 'Type': '1.6i Cat', 'Production Period': '1986/09-1991/08', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Kadett E', 'Platform': '39, 49', 'Type': '1.8i', 'Production Period': '1990/09-1992/05', 'Engine': '1796 ccm, 66 KW, 90 PS'}, {'Make': 'Opel', 'Model': 'Kadett E Cabriolet', 'Platform': '43B', 'Type': '1.4i', 'Production Period': '1990/01-1991/08', 'Engine': '1389 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Kadett E Cabriolet', 'Platform': '43B', 'Type': '1.6i Cat', 'Production Period': '1987/10-1993/02', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Kadett E Caravan', 'Platform': '35, 36, 45, 46', 'Type': '1.3i Cat', 'Production Period': '1985/09-1991/08', 'Engine': '1297 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Kadett E Caravan', 'Platform': '35, 36, 45, 46', 'Type': '1.4i', 'Production Period': '1990/01-1991/08', 'Engine': '1389 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Kadett E Caravan', 'Platform': '35, 36, 45, 46', 'Type': '1.6i Cat', 'Production Period': '1986/09-1991/08', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Kadett E Caravan', 'Platform': '35, 36, 45, 46', 'Type': '1.8i', 'Production Period': '1985/06-1991/08', 'Engine': '1796 ccm, 66 KW, 90 PS'}, {'Make': 'Opel', 'Model': 'Kadett E CC', 'Platform': '33, 34, 43, 44', 'Type': '1.3i Cat', 'Production Period': '1985/09-1991/08', 'Engine': '1297 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Kadett E CC', 'Platform': 'T85', 'Type': '1.4i', 'Production Period': '1990/01-1991/08', 'Engine': '1389 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Kadett E CC', 'Platform': '33, 34, 43, 44', 'Type': '1.6i Cat', 'Production Period': '1986/09-1991/08', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Kadett E CC', 'Platform': 'T85', 'Type': '1.8i', 'Production Period': '1985/06-1991/08', 'Engine': '1796 ccm, 66 KW, 90 PS'}, {'Make': 'Opel', 'Model': 'Kadett E Combo', 'Platform': 'T85', 'Type': '1.4i', 'Production Period': '1991/08-1994/07', 'Engine': '1389 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Kadett E Combo', 'Platform': 'T85', 'Type': '1.6i', 'Production Period': '1991/08-1994/07', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Kadett E Kasten/Kombi', 'Platform': 'T85', 'Type': '1.4i', 'Production Period': '1990/01-1991/08', 'Engine': '1389 ccm, 44 KW, 60 PS'}, {'Make': 'Opel', 'Model': 'Kadett E Kasten/Kombi', 'Platform': 'T85', 'Type': '1.6i', 'Production Period': '1989/08-1993/09', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Kadett E Kasten/Kombi', 'Platform': 'T85', 'Type': '1.8i', 'Production Period': '1984/08-1992/09', 'Engine': '1796 ccm, 66 KW, 90 PS'}, {'Make': 'Opel', 'Model': 'Vectra A', 'Platform': '86, 87', 'Type': '1.6i', 'Production Period': '1993/09-1995/11', 'Engine': '1598 ccm, 52 KW, 71 PS'}, {'Make': 'Opel', 'Model': 'Vectra A', 'Platform': '86, 87', 'Type': '1.6i', 'Production Period': '1988/09-1995/11', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Vectra A', 'Platform': '86, 87', 'Type': '1.8i Cat', 'Production Period': '1990/03-1995/11', 'Engine': '1796 ccm, 66 KW, 90 PS'}, {'Make': 'Opel', 'Model': 'Vectra A CC', 'Platform': '88, 89', 'Type': '1.6i', 'Production Period': '1993/09-1995/11', 'Engine': '1598 ccm, 52 KW, 71 PS'}, {'Make': 'Opel', 'Model': 'Vectra A CC', 'Platform': '88, 89', 'Type': '1.6i Cat', 'Production Period': '1988/09-1995/11', 'Engine': '1598 ccm, 55 KW, 75 PS'}, {'Make': 'Opel', 'Model': 'Vectra A CC', 'Platform': '88, 89', 'Type': '1.8i Cat', 'Production Period': '1990/03-1995/11', 'Engine': '1796 ccm, 66 KW, 90 PS'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>1493527</v>
+      </c>
+      <c r="C12" t="n">
+        <v>305319448666</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NDgwWDY0MA==/z/pEgAAOSw0jxlgGSU/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>33596</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Starters, Alternators, ECUs &amp; Wiring:ECUs &amp; Computer Modules</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>GMC</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>3GNAXJEV4JL327359</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>22940857</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>591-08330</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>22940857</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Yukon XL</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>CHEVROLET TRUCK</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="n">
+        <v>2015</v>
+      </c>
+      <c r="W12" t="n">
+        <v>297</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Chassis ECM Door Power Inside Liftgate Fits 15-19 ESCALADE 1493527</t>
+        </is>
+      </c>
+      <c r="Y12" t="n">
+        <v>91.31</v>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>[{'Year': '2021', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'L Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2021', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'L Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2021', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2021', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2021', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'High Country Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'L Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'LS Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Buick', 'Model': 'Enclave', 'Trim': 'Avenir Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Buick', 'Model': 'Enclave', 'Trim': 'Essence Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Buick', 'Model': 'Enclave', 'Trim': 'Preferred Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Buick', 'Model': 'Enclave', 'Trim': 'Premium Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2020', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2020', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2020', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Premium Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2020', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Premium Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2020', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2020', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2020', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2020', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2020', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Premium Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2020', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Premium Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'L Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'L Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LS Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LS Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Tahoe', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Tahoe', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'High Country Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'L Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'LS Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'RS Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'True North Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'Denali Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'SL Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'SLE Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'SLT Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'SLT Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'GMC', 'Model': 'Yukon', 'Trim': 'Denali Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2020', 'Make': 'GMC', 'Model': 'Yukon', 'Trim': 'SLT Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Buick', 'Model': 'Enclave', 'Trim': 'Avenir Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Buick', 'Model': 'Enclave', 'Trim': 'Essence Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Buick', 'Model': 'Enclave', 'Trim': 'Preferred Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Buick', 'Model': 'Enclave', 'Trim': 'Premium Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Premium Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Premium Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Premium Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Premium Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'L Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LS Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '1.6L 1598CC 98Cu. In. l4 DIESEL DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '1.6L 1598CC 98Cu. In. l4 DIESEL DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Chevrolet', 'Model': 'Tahoe', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '5.3L 5328CC 325Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Chevrolet', 'Model': 'Tahoe', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Chevrolet', 'Model': 'Tahoe', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'High Country Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'L Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'LS Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'RS Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'RS Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'GMC', 'Model': 'Acadia', 'Trim': 'Denali Sport Utility 4-Door', 'Engine': '3.6L 222Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'GMC', 'Model': 'Acadia', 'Trim': 'SL Sport Utility 4-Door', 'Engine': '2.5L 2457CC 153Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'GMC', 'Model': 'Acadia', 'Trim': 'SLE Sport Utility 4-Door', 'Engine': '2.5L 2457CC 153Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'GMC', 'Model': 'Acadia', 'Trim': 'SLE Sport Utility 4-Door', 'Engine': '3.6L 222Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'GMC', 'Model': 'Acadia', 'Trim': 'SLT Sport Utility 4-Door', 'Engine': '2.5L 2457CC 153Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'GMC', 'Model': 'Acadia', 'Trim': 'SLT Sport Utility 4-Door', 'Engine': '3.6L 222Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'Denali Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'SL Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'SLE Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'SLE Sport Utility 4-Door', 'Engine': '1.6L 1598CC 98Cu. In. l4 DIESEL DOHC Turbocharged'}, {'Year': '2019', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'SLE Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'SLT Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'SLT Sport Utility 4-Door', 'Engine': '1.6L 1598CC 98Cu. In. l4 DIESEL DOHC Turbocharged'}, {'Year': '2019', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'SLT Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'GMC', 'Model': 'Yukon', 'Trim': 'Denali Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'GMC', 'Model': 'Yukon', 'Trim': 'Denali Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'GMC', 'Model': 'Yukon', 'Trim': 'SLT Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2019', 'Make': 'GMC', 'Model': 'Yukon', 'Trim': 'SLT Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Buick', 'Model': 'Enclave', 'Trim': 'Avenir Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'Buick', 'Model': 'Enclave', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'Buick', 'Model': 'Enclave', 'Trim': 'Essence Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'Buick', 'Model': 'Enclave', 'Trim': 'Premium Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Premium Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Premium Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Premium Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Premium Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'L Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LS Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '1.6L 1598CC 98Cu. In. l4 DIESEL DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '1.6L 1598CC 98Cu. In. l4 DIESEL DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Chevrolet', 'Model': 'Suburban 3500 HD', 'Trim': 'LS Sport Utility 4-Door', 'Engine': '6.0L 5967CC 364Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Chevrolet', 'Model': 'Tahoe', 'Trim': 'LS Sport Utility 4-Door', 'Engine': '5.3L 5328CC 325Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Chevrolet', 'Model': 'Tahoe', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '5.3L 5328CC 325Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Chevrolet', 'Model': 'Tahoe', 'Trim': 'PPV Sport Utility 4-Door', 'Engine': '5.3L 5328CC 325Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Chevrolet', 'Model': 'Tahoe', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'L Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'LS Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'Chevrolet', 'Model': 'Traverse', 'Trim': 'RS Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Acadia', 'Trim': 'Denali Sport Utility 4-Door', 'Engine': '3.6L 222Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Acadia', 'Trim': 'SL Sport Utility 4-Door', 'Engine': '2.5L 2457CC 153Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Acadia', 'Trim': 'SLE Sport Utility 4-Door', 'Engine': '2.5L 2457CC 153Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Acadia', 'Trim': 'SLE Sport Utility 4-Door', 'Engine': '3.6L 222Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Acadia', 'Trim': 'SLT Sport Utility 4-Door', 'Engine': '2.5L 2457CC 153Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Acadia', 'Trim': 'SLT Sport Utility 4-Door', 'Engine': '3.6L 222Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'Denali Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'SL Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'SLE Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'SLE Sport Utility 4-Door', 'Engine': '1.6L 1598CC 98Cu. In. l4 DIESEL DOHC Turbocharged'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'SLE Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'SLT Sport Utility 4-Door', 'Engine': '1.5L 1490CC 91Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'SLT Sport Utility 4-Door', 'Engine': '1.6L 1598CC 98Cu. In. l4 DIESEL DOHC Turbocharged'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Terrain', 'Trim': 'SLT Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Yukon', 'Trim': 'Denali Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Yukon', 'Trim': 'Denali Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Yukon', 'Trim': 'SLT Sport Utility 4-Door', 'Engine': '5.3L 5328CC 325Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Yukon XL', 'Trim': 'Denali Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Yukon XL', 'Trim': 'Denali Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Yukon XL', 'Trim': 'SLE Sport Utility 4-Door', 'Engine': '5.3L 5328CC 325Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2018', 'Make': 'GMC', 'Model': 'Yukon XL', 'Trim': 'SLT Sport Utility 4-Door', 'Engine': '5.3L 5328CC 325Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Premium Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Premium Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Premium Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade', 'Trim': 'Premium Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Premium Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Premium Luxury Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Premium Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 FLEX OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Cadillac', 'Model': 'Escalade ESV', 'Trim': 'Premium Sport Utility 4-Door', 'Engine': '6.2L 6162CC 376Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'L Sport Utility 4-Door', 'Engine': '2.4L 2384CC 145Cu. In. l4 FLEX DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'L Sport Utility 4-Door', 'Engine': '2.4L 2384CC 145Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LS Sport Utility 4-Door', 'Engine': '2.4L 2384CC 145Cu. In. l4 FLEX DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LS Sport Utility 4-Door', 'Engine': '2.4L 2384CC 145Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '2.4L 2384CC 145Cu. In. l4 FLEX DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '2.4L 2384CC 145Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 FLEX DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '2.4L 2384CC 145Cu. In. l4 FLEX DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '2.4L 2384CC 145Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 FLEX DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Chevrolet', 'Model': 'Equinox', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '3.6L 3564CC 217Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Chevrolet', 'Model': 'Tahoe', 'Trim': 'LT Sport Utility 4-Door', 'Engine': '5.3L 5328CC 325Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'Chevrolet', 'Model': 'Tahoe', 'Trim': 'Premier Sport Utility 4-Door', 'Engine': '5.3L 5328CC 325Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '2017', 'Make': 'GMC', 'Model': 'Acadia', 'Trim': 'Denali Sport Utility 4-Door', 'Engine': '3.6L 222Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'GMC', 'Model': 'Acadia', 'Trim': 'SL Sport Utility 4-Door', 'Engine': '2.5L 2457CC 153Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'GMC', 'Model': 'Acadia', 'Trim': 'SLE Sport Utility 4-Door</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>1493599</v>
+      </c>
+      <c r="C13" t="n">
+        <v>235338864765</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTAyNFgxMDI0/z/7j0AAOSwUtFldquo/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>33601</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Vehicle Parts &amp; Accessories:Car Parts &amp; Accessories:Engine Cooling Components:Coolant Hoses</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1284562RMP</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Fiesta</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>BGA</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Coolant Flange</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="n">
+        <v>7</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Coolant Flange / Pipe fits FORD FIESTA Mk4 1.4 96 to 02 Water BGA 1493599 New</t>
+        </is>
+      </c>
+      <c r="Y13" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>[{'Car Make': 'Ford', 'Model': 'Fiesta', 'Cars Year': '1996', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD Mk IV JA_,JB_', 'Cars Type': '1.4 i 16V', 'Engine': '1388cc 66KW 90HP FHA;FHE'}, {'Car Make': 'Ford', 'Model': 'Fiesta', 'Cars Year': '1997', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD Mk IV JA_,JB_', 'Cars Type': '1.4 i 16V', 'Engine': '1388cc 66KW 90HP FHA;FHE'}, {'Car Make': 'Ford', 'Model': 'Fiesta', 'Cars Year': '1998', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD Mk IV JA_,JB_', 'Cars Type': '1.4 i 16V', 'Engine': '1388cc 66KW 90HP FHA;FHE'}, {'Car Make': 'Ford', 'Model': 'Fiesta', 'Cars Year': '1999', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD Mk IV JA_,JB_', 'Cars Type': '1.4 i 16V', 'Engine': '1388cc 66KW 90HP FHA;FHE'}, {'Car Make': 'Ford', 'Model': 'Fiesta', 'Cars Year': '2000', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD Mk IV JA_,JB_', 'Cars Type': '1.4 i 16V', 'Engine': '1388cc 66KW 90HP FHA;FHE'}, {'Car Make': 'Ford', 'Model': 'Fiesta', 'Cars Year': '2001', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD Mk IV JA_,JB_', 'Cars Type': '1.4 i 16V', 'Engine': '1388cc 66KW 90HP FHA;FHE'}, {'Car Make': 'Ford', 'Model': 'Fiesta', 'Cars Year': '2002', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD Mk IV JA_,JB_', 'Cars Type': '1.4 i 16V', 'Engine': '1388cc 66KW 90HP FHA;FHE'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>1493622</v>
+      </c>
+      <c r="C14" t="n">
+        <v>256386779204</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NzYwWDU0MA==/z/pT0AAOSws~Vlr7LJ/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>261328</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sports Mem, Cards &amp; Fan Shop:Sports Trading Cards:Trading Card Singles</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Sports Trading Card</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>2003</v>
+      </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>2003 Bowman Draft Chrome Refractor John Maine #BDP145</t>
+        </is>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>1493655</v>
+      </c>
+      <c r="C15" t="n">
+        <v>163240545319</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NDAwWDYwMA==/z/5cYAAOSwSXdf4fAS/$_3.JPG']</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>33557</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Air &amp; Fuel Delivery:Air Intake &amp; Fuel Sensors</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>CSP8294 CSP9294 INJS068N 550421 1516717</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>5WK96813Z</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>VDO</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>VDO Intake Manifold Pressure Sensor Black Fits FORD B-Max Fiesta VI Van 1516717</t>
+        </is>
+      </c>
+      <c r="Y15" t="n">
+        <v>36.69</v>
+      </c>
+      <c r="Z15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>1493710</v>
+      </c>
+      <c r="C16" t="n">
+        <v>134903456522</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NDAwWDYwMA==/z/5ikAAOSwn-Flr7km/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>262125</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Vehicle Parts &amp; Accessories:Car Parts &amp; Accessories:Engines &amp; Engine Parts:Engine Sensors &amp; Switches</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>81144</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Galaxy</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>NGK</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Sensor, crankshaft pulse</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>29</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>NGK 81144 Crankshaft Pulse Sensor Fits Ford Galaxy 2.0 TDCi 2004-2012</t>
+        </is>
+      </c>
+      <c r="Y16" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>[{'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2009', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 103KW 140HP QXWA;QXWB;QXWC;UFWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2008', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 103KW 140HP QXWA;QXWB;QXWC;UFWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2007', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 103KW 140HP QXWA;QXWB;QXWC;UFWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2006', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 103KW 140HP QXWA;QXWB;QXWC;UFWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2015', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 103KW 140HP QXWA;QXWB;QXWC;UFWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2014', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 103KW 140HP QXWA;QXWB;QXWC;UFWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2013', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 103KW 140HP QXWA;QXWB;QXWC;UFWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2012', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 103KW 140HP QXWA;QXWB;QXWC;UFWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2011', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 103KW 140HP QXWA;QXWB;QXWC;UFWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2010', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 103KW 140HP QXWA;QXWB;QXWC;UFWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2009', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 85KW 115HP KLWA;TYWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2008', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 85KW 115HP KLWA;TYWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2007', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 85KW 115HP KLWA;TYWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2015', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 85KW 115HP KLWA;TYWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2014', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 85KW 115HP KLWA;TYWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2013', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 85KW 115HP KLWA;TYWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2012', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 85KW 115HP KLWA;TYWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2011', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 85KW 115HP KLWA;TYWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2010', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 85KW 115HP KLWA;TYWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2009', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 96KW 130HP AZWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2008', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 96KW 130HP AZWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2007', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 96KW 130HP AZWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2006', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 96KW 130HP AZWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2015', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 96KW 130HP AZWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2014', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 96KW 130HP AZWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2013', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 96KW 130HP AZWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2012', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 96KW 130HP AZWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2011', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 96KW 130HP AZWA'}, {'Car Make': 'Ford', 'Model': 'Galaxy', 'Cars Year': '2010', 'Variant': 'Diesel MPV', 'BodyStyle': 'FWD II WA6', 'Cars Type': '2.0 TDCi', 'Engine': '1997cc 96KW 130HP AZWA'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>1493713</v>
+      </c>
+      <c r="C17" t="n">
+        <v>154677064559</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NDAwWDYwMA==/z/SdoAAOSwzxhhfcOI/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>33554</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Auto &amp; Motorrad: Teile:Autoteile &amp; Zubehör:Luft- &amp; Kraftstoffversorgung:Einspritzanlagen &amp; Teile:Einspritzdüsen</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>VW</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Transporter V Pritsche/Fahrgestell</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>2.0 TSI</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="n">
+        <v>240</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>TOPRAN 114 216 Sensor, camshaft position for AUDI,PORSCHE,SEAT,SKODA,VW</t>
+        </is>
+      </c>
+      <c r="Y17" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[{'Make': 'Audi', 'Model': 'A3', 'Platform': '8P1', 'Type': '1.8 TFSI', 'Production Period': '2006/11-2012/08', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Audi', 'Model': 'A3', 'Platform': '8P1', 'Type': '1.8 TFSI quattro', 'Production Period': '2008/07-2012/08', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Audi', 'Model': 'A3', 'Platform': '8P1', 'Type': '2.0 TFSI', 'Production Period': '2004/09-2012/08', 'Engine': '1984 ccm, 147 KW, 200 PS'}, {'Make': 'Audi', 'Model': 'A3', 'Platform': '8P1', 'Type': '2.0 TFSI quattro', 'Production Period': '2004/09-2012/08', 'Engine': '1984 ccm, 147 KW, 200 PS'}, {'Make': 'Audi', 'Model': 'A3 Sportback', 'Platform': '8PA', 'Type': '1.8 TFSI quattro', 'Production Period': '2008/07-2013/03', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Audi', 'Model': 'A3 Sportback', 'Platform': '8PA', 'Type': '1.8 TFSI', 'Production Period': '2006/11-2013/03', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Audi', 'Model': 'A3 Sportback', 'Platform': '8PA', 'Type': '2.0 TFSI quattro', 'Production Period': '2004/09-2013/03', 'Engine': '1984 ccm, 147 KW, 200 PS'}, {'Make': 'Audi', 'Model': 'A3 Sportback', 'Platform': '8PA', 'Type': '2.0 TFSI', 'Production Period': '2004/09-2013/03', 'Engine': '1984 ccm, 147 KW, 200 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8K2, B8', 'Type': '1.8 TFSI quattro', 'Production Period': '2008/09-2012/03', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8K2, B8', 'Type': '1.8 TFSI', 'Production Period': '2007/11-2012/03', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8K2, B8', 'Type': '1.8 TFSI quattro', 'Production Period': '2011/11-2015/12', 'Engine': '1798 ccm, 125 KW, 170 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8K2, B8', 'Type': '1.8 TFSI', 'Production Period': '2008/01-2015/12', 'Engine': '1798 ccm, 88 KW, 120 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8K2, B8', 'Type': '2.0 TFSI Flexible fuel quattro', 'Production Period': '2009/11-2015/12', 'Engine': '1984 ccm, 132 KW, 180 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8K2, B8', 'Type': '2.0 TFSI', 'Production Period': '2008/06-2013/05', 'Engine': '1984 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8K2, B8', 'Type': '2.0 TFSI quattro', 'Production Period': '2013/05-2015/12', 'Engine': '1984 ccm, 162 KW, 220 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8K2, B8', 'Type': '2.0 TFSI', 'Production Period': '2013/05-2015/12', 'Engine': '1984 ccm, 165 KW, 224 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8K2, B8', 'Type': '2.0 TFSI quattro', 'Production Period': '2013/05-2015/12', 'Engine': '1984 ccm, 165 KW, 224 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8K2, B8', 'Type': '2.7 TDI', 'Production Period': '2007/11-2012/03', 'Engine': '2698 ccm, 120 KW, 163 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8K2, B8', 'Type': '2.7 TDI', 'Production Period': '2007/11-2012/03', 'Engine': '2698 ccm, 140 KW, 190 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8K2, B8', 'Type': '3.0 TDI', 'Production Period': '2011/11-2015/12', 'Engine': '2967 ccm, 150 KW, 204 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8K2, B8', 'Type': '3.0 TDI quattro', 'Production Period': '2008/06-2010/05', 'Engine': '2967 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8K2, B8', 'Type': '3.0 TDI quattro', 'Production Period': '2007/11-2012/03', 'Engine': '2967 ccm, 176 KW, 240 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8K2, B8', 'Type': '3.0 TDI quattro', 'Production Period': '2011/11-2015/12', 'Engine': '2967 ccm, 180 KW, 245 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8K2, B8', 'Type': '3.0 TFSI quattro', 'Production Period': '2012/02-2015/12', 'Engine': '2995 ccm, 200 KW, 272 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8K2, B8', 'Type': 'S4 quattro', 'Production Period': '2008/11-2015/12', 'Engine': '2995 ccm, 245 KW, 333 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8EC, B7', 'Type': '3.2 FSI quattro', 'Production Period': '2005/01-2008/06', 'Engine': '3123 ccm, 188 KW, 255 PS'}, {'Make': 'Audi', 'Model': 'A4', 'Platform': '8K2, B8', 'Type': '3.2 FSI quattro', 'Production Period': '2007/11-2012/03', 'Engine': '3197 ccm, 195 KW, 265 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8K5, B8', 'Type': '1.8 TFSI', 'Production Period': '2007/11-2012/03', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8K5, B8', 'Type': '1.8 TFSI', 'Production Period': '2011/11-2015/12', 'Engine': '1798 ccm, 125 KW, 170 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8K5, B8', 'Type': '1.8 TFSI quattro', 'Production Period': '2011/11-2015/12', 'Engine': '1798 ccm, 125 KW, 170 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8K5, B8', 'Type': '1.8 TFSI', 'Production Period': '2008/04-2015/12', 'Engine': '1798 ccm, 88 KW, 120 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8K5, B8', 'Type': '2.0 TFSI', 'Production Period': '2008/06-2015/12', 'Engine': '1984 ccm, 132 KW, 180 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8K5, B8', 'Type': '2.0 TFSI Flexible fuel quattro', 'Production Period': '2009/11-2015/12', 'Engine': '1984 ccm, 132 KW, 180 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8K5, B8', 'Type': '2.0 TFSI', 'Production Period': '2008/06-2013/05', 'Engine': '1984 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8K5, B8', 'Type': '2.0 TFSI quattro', 'Production Period': '2008/06-2015/12', 'Engine': '1984 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8K5, B8', 'Type': '2.0 TFSI', 'Production Period': '2013/05-2015/12', 'Engine': '1984 ccm, 165 KW, 224 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8K5, B8', 'Type': '2.0 TFSI quattro', 'Production Period': '2013/05-2015/12', 'Engine': '1984 ccm, 165 KW, 224 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8K5, B8', 'Type': '2.7 TDI', 'Production Period': '2008/06-2012/03', 'Engine': '2698 ccm, 120 KW, 163 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8K5, B8', 'Type': '2.7 TDI', 'Production Period': '2008/04-2012/03', 'Engine': '2698 ccm, 140 KW, 190 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8K5, B8', 'Type': '3.0 TDI quattro', 'Production Period': '2008/06-2010/05', 'Engine': '2967 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8K5, B8', 'Type': '3.0 TDI quattro', 'Production Period': '2011/11-2015/12', 'Engine': '2967 ccm, 180 KW, 245 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8K5, B8', 'Type': 'S4 quattro', 'Production Period': '2008/11-2015/12', 'Engine': '2995 ccm, 245 KW, 333 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8ED, B7', 'Type': '3.2 FSI quattro', 'Production Period': '2005/01-2008/06', 'Engine': '3123 ccm, 188 KW, 255 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8ED, B7', 'Type': '3.2 FSI', 'Production Period': '2005/01-2008/06', 'Engine': '3123 ccm, 188 KW, 255 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8K5, B8', 'Type': '3.2 FSI', 'Production Period': '2008/09-2012/03', 'Engine': '3197 ccm, 195 KW, 265 PS'}, {'Make': 'Audi', 'Model': 'A4 Avant', 'Platform': '8K5, B8', 'Type': '3.2 FSI quattro', 'Production Period': '2008/04-2012/03', 'Engine': '3197 ccm, 195 KW, 265 PS'}, {'Make': 'Audi', 'Model': 'A5', 'Platform': '8T3', 'Type': '1.8 TFSI', 'Production Period': '2009/05-2011/09', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Audi', 'Model': 'A5', 'Platform': '8T3', 'Type': '1.8 TFSI', 'Production Period': '2007/10-2017/01', 'Engine': '1798 ccm, 125 KW, 170 PS'}, {'Make': 'Audi', 'Model': 'A5', 'Platform': '8T3', 'Type': '2.0 TFSI', 'Production Period': '2008/11-2012/03', 'Engine': '1984 ccm, 132 KW, 180 PS'}, {'Make': 'Audi', 'Model': 'A5', 'Platform': '8T3', 'Type': '2.0 TFSI quattro', 'Production Period': '2008/06-2017/01', 'Engine': '1984 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'A5', 'Platform': '8T3', 'Type': '2.0 TFSI', 'Production Period': '2008/06-2013/11', 'Engine': '1984 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'A5', 'Platform': '8T3', 'Type': '2.0 TFSI quattro', 'Production Period': '2012/03-2017/01', 'Engine': '1984 ccm, 162 KW, 220 PS'}, {'Make': 'Audi', 'Model': 'A5', 'Platform': '8T3', 'Type': '2.0 TFSI quattro', 'Production Period': '2013/05-2016/05', 'Engine': '1984 ccm, 165 KW, 224 PS'}, {'Make': 'Audi', 'Model': 'A5', 'Platform': '8T3', 'Type': '2.7 TDI', 'Production Period': '2007/09-2012/03', 'Engine': '2698 ccm, 120 KW, 163 PS'}, {'Make': 'Audi', 'Model': 'A5', 'Platform': '8T3', 'Type': '3.0 TDI', 'Production Period': '2011/10-2017/01', 'Engine': '2967 ccm, 150 KW, 204 PS'}, {'Make': 'Audi', 'Model': 'A5', 'Platform': '8T3', 'Type': '3.0 TDI quattro', 'Production Period': '2011/10-2017/01', 'Engine': '2967 ccm, 180 KW, 245 PS'}, {'Make': 'Audi', 'Model': 'A5', 'Platform': '8T3', 'Type': 'S5 quattro', 'Production Period': '2011/10-2017/01', 'Engine': '2995 ccm, 245 KW, 333 PS'}, {'Make': 'Audi', 'Model': 'A5', 'Platform': '8T3', 'Type': '3.2 FSI', 'Production Period': '2007/06-2012/03', 'Engine': '3197 ccm, 195 KW, 265 PS'}, {'Make': 'Audi', 'Model': 'A5', 'Platform': '8T3', 'Type': '3.2 FSI quattro', 'Production Period': '2007/06-2012/03', 'Engine': '3197 ccm, 195 KW, 265 PS'}, {'Make': 'Audi', 'Model': 'A5 Sportback', 'Platform': '8TA', 'Type': '1.8 TFSI', 'Production Period': '2009/11-2011/09', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Audi', 'Model': 'A5 Sportback', 'Platform': '8TA', 'Type': '1.8 TFSI', 'Production Period': '2011/08-2017/01', 'Engine': '1798 ccm, 125 KW, 170 PS'}, {'Make': 'Audi', 'Model': 'A5 Sportback', 'Platform': '8TA', 'Type': '2.0 TFSI', 'Production Period': '2009/09-2014/06', 'Engine': '1984 ccm, 132 KW, 180 PS'}, {'Make': 'Audi', 'Model': 'A5 Sportback', 'Platform': '8TA', 'Type': '2.0 TFSI', 'Production Period': '2009/09-2013/11', 'Engine': '1984 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'A5 Sportback', 'Platform': '8TA', 'Type': '2.0 TFSI quattro', 'Production Period': '2009/09-2017/01', 'Engine': '1984 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'A5 Sportback', 'Platform': '8TA', 'Type': '2.0 TFSI', 'Production Period': '2013/05-2016/05', 'Engine': '1984 ccm, 165 KW, 224 PS'}, {'Make': 'Audi', 'Model': 'A5 Sportback', 'Platform': '8TA', 'Type': '2.0 TFSI quattro', 'Production Period': '2013/05-2016/05', 'Engine': '1984 ccm, 165 KW, 224 PS'}, {'Make': 'Audi', 'Model': 'A5 Sportback', 'Platform': '8TA', 'Type': '2.7 TDI', 'Production Period': '2009/09-2012/03', 'Engine': '2698 ccm, 140 KW, 190 PS'}, {'Make': 'Audi', 'Model': 'A5 Sportback', 'Platform': '8TA', 'Type': '3.0 TDI quattro', 'Production Period': '2011/10-2017/01', 'Engine': '2967 ccm, 180 KW, 245 PS'}, {'Make': 'Audi', 'Model': 'A5 Sportback', 'Platform': '8TA', 'Type': 'S5 quattro', 'Production Period': '2010/01-2017/01', 'Engine': '2995 ccm, 245 KW, 333 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4G2, 4GC', 'Type': '2.0 TFSI', 'Production Period': '2011/05-2018/09', 'Engine': '1984 ccm, 132 KW, 180 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4G2, 4GC', 'Type': '2.0 TFSI Hybrid', 'Production Period': '2011/11-2015/04', 'Engine': '1984 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4G2, 4GC', 'Type': '2.0 TFSI', 'Production Period': '2011/03-2013/05', 'Engine': '1984 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4G2, 4GC', 'Type': '2.0 TFSI quattro', 'Production Period': '2012/05-2015/04', 'Engine': '1984 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4G2, 4GC', 'Type': '2.0 TFSI quattro', 'Production Period': '2013/05-2018/09', 'Engine': '1984 ccm, 162 KW, 220 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4G2, 4GC', 'Type': '2.0 TFSI', 'Production Period': '2013/05-2018/09', 'Engine': '1984 ccm, 162 KW, 220 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4F2, C6', 'Type': '2.4 quattro', 'Production Period': '2005/01-2008/10', 'Engine': '2393 ccm, 130 KW, 177 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4F2, C6', 'Type': '2.4', 'Production Period': '2004/05-2008/10', 'Engine': '2393 ccm, 130 KW, 177 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4F2, C6', 'Type': '2.7 TDI', 'Production Period': '2004/11-2011/03', 'Engine': '2698 ccm, 120 KW, 163 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4F2, C6', 'Type': '2.7 TDI quattro', 'Production Period': '2005/06-2011/03', 'Engine': '2698 ccm, 120 KW, 163 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4F2, C6', 'Type': '2.7 TDI quattro', 'Production Period': '2008/10-2011/03', 'Engine': '2698 ccm, 140 KW, 190 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4F2, C6', 'Type': '2.8 FSI quattro', 'Production Period': '2008/10-2011/03', 'Engine': '2773 ccm, 140 KW, 190 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4G2, 4GC', 'Type': '2.8 FSI quattro', 'Production Period': '2010/11-2015/04', 'Engine': '2773 ccm, 150 KW, 204 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4F2, C6', 'Type': '2.8 FSI', 'Production Period': '2006/11-2008/10', 'Engine': '2773 ccm, 154 KW, 210 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4F2, C6', 'Type': '2.8 FSI', 'Production Period': '2008/10-2011/03', 'Engine': '2773 ccm, 162 KW, 220 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4F2, C6', 'Type': '2.8 FSI quattro', 'Production Period': '2008/10-2011/03', 'Engine': '2773 ccm, 162 KW, 220 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4G2, 4GC', 'Type': '3.0 TDI quattro', 'Production Period': '2011/03-2018/09', 'Engine': '2967 ccm, 150 KW, 204 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4G2, 4GC', 'Type': '3.0 TDI', 'Production Period': '2010/11-2018/09', 'Engine': '2967 ccm, 150 KW, 204 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4F2, C6', 'Type': '3.0 TDI quattro', 'Production Period': '2004/05-2011/03', 'Engine': '2967 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4F2, C6', 'Type': '3.0 TDI quattro', 'Production Period': '2008/10-2011/03', 'Engine': '2967 ccm, 176 KW, 240 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4G2, 4GC', 'Type': '3.0 TDI quattro', 'Production Period': '2011/03-2018/09', 'Engine': '2967 ccm, 180 KW, 245 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4G2, 4GC', 'Type': '3.0 TDI quattro', 'Production Period': '2011/11-2018/09', 'Engine': '2967 ccm, 230 KW, 313 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4F2, C6', 'Type': '3.0 TFSI quattro', 'Production Period': '2008/10-2011/03', 'Engine': '2995 ccm, 213 KW, 290 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4G2, 4GC', 'Type': '3.0 TFSI quattro', 'Production Period': '2010/11-2012/05', 'Engine': '2995 ccm, 220 KW, 300 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4F2, C6', 'Type': '3.2 FSI quattro', 'Production Period': '2006/09-2008/10', 'Engine': '3123 ccm, 183 KW, 249 PS'}, {'Make': 'Audi', 'Model': 'A6', 'Platform': '4F2, C6', 'Type': '3.2 FSI quattro', 'Production Period': '2004/05-2008/10', 'Engine': '3123 ccm, 188 KW, 255 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4G5, 4GD', 'Type': '2.0 TFSI', 'Production Period': '2011/06-2018/09', 'Engine': '1984 ccm, 132 KW, 180 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4F5, C6', 'Type': '2.4', 'Production Period': '2005/03-2008/10', 'Engine': '2393 ccm, 130 KW, 177 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4F5, C6', 'Type': '2.4 quattro', 'Production Period': '2005/03-2008/10', 'Engine': '2393 ccm, 130 KW, 177 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4F5, C6', 'Type': '2.7 TDI', 'Production Period': '2005/03-2011/08', 'Engine': '2698 ccm, 120 KW, 163 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4F5, C6', 'Type': '2.7 TDI quattro', 'Production Period': '2005/06-2011/08', 'Engine': '2698 ccm, 120 KW, 163 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4F5, C6', 'Type': '2.7 TDI', 'Production Period': '2008/10-2011/08', 'Engine': '2698 ccm, 140 KW, 190 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4F5, C6', 'Type': '2.7 TDI quattro', 'Production Period': '2008/10-2011/08', 'Engine': '2698 ccm, 140 KW, 190 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4F5, C6', 'Type': '2.8 FSI quattro', 'Production Period': '2008/10-2011/08', 'Engine': '2773 ccm, 140 KW, 190 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4F5, C6', 'Type': '2.8 FSI', 'Production Period': '2008/10-2011/08', 'Engine': '2773 ccm, 140 KW, 190 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4G5, 4GD', 'Type': '2.8 FSI quattro', 'Production Period': '2011/05-2015/04', 'Engine': '2773 ccm, 150 KW, 204 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4G5, 4GD', 'Type': '2.8 FSI', 'Production Period': '2011/05-2015/04', 'Engine': '2773 ccm, 150 KW, 204 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4F5, C6', 'Type': '2.8 FSI quattro', 'Production Period': '2007/06-2008/10', 'Engine': '2773 ccm, 154 KW, 210 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4F5, C6', 'Type': '2.8 FSI quattro', 'Production Period': '2008/10-2011/08', 'Engine': '2773 ccm, 162 KW, 220 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4G5, 4GD', 'Type': '3.0 TDI', 'Production Period': '2011/05-2018/09', 'Engine': '2967 ccm, 150 KW, 204 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4F5, C6', 'Type': '3.0 TDI quattro', 'Production Period': '2005/03-2011/08', 'Engine': '2967 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4F5, C6', 'Type': '3.0 TDI quattro', 'Production Period': '2008/10-2011/08', 'Engine': '2967 ccm, 176 KW, 240 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4G5, 4GD', 'Type': '3.0 TDI quattro', 'Production Period': '2011/05-2018/09', 'Engine': '2967 ccm, 180 KW, 245 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4G5, 4GD', 'Type': '3.0 TDI quattro', 'Production Period': '2011/11-2018/09', 'Engine': '2967 ccm, 230 KW, 313 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4F5, C6', 'Type': '3.0 TFSI quattro', 'Production Period': '2008/10-2011/08', 'Engine': '2995 ccm, 213 KW, 290 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4F5, C6', 'Type': '3.0 TFSI quattro', 'Production Period': '2008/10-2011/08', 'Engine': '2995 ccm, 220 KW, 299 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4G5, 4GD', 'Type': '3.0 TFSI quattro', 'Production Period': '2011/05-2012/05', 'Engine': '2995 ccm, 220 KW, 300 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4G5, 4GD', 'Type': '3.0 TFSI quattro', 'Production Period': '2011/11-2018/09', 'Engine': '2995 ccm, 228 KW, 310 PS'}, {'Make': 'Audi', 'Model': 'A6 Avant', 'Platform': '4F5, C6', 'Type': '3.2 FSI quattro', 'Production Period': '2005/03-2008/10', 'Engine': '3123 ccm, 188 KW, 255 PS'}, {'Make': 'Audi', 'Model': 'A7 Sportback', 'Platform': '4GA, 4GF', 'Type': '2.8 FSI quattro', 'Production Period': '2010/10-2015/03', 'Engine': '2773 ccm, 150 KW, 204 PS'}, {'Make': 'Audi', 'Model': 'A7 Sportback', 'Platform': '4GA, 4GF', 'Type': '2.8 FSI', 'Production Period': '2011/02-2015/03', 'Engine': '2773 ccm, 150 KW, 204 PS'}, {'Make': 'Audi', 'Model': 'A7 Sportback', 'Platform': '4GA, 4GF', 'Type': '3.0 TDI quattro', 'Production Period': '2010/12-2015/03', 'Engine': '2967 ccm, 150 KW, 204 PS'}, {'Make': 'Audi', 'Model': 'A7 Sportback', 'Platform': '4GA, 4GF', 'Type': '3.0 TDI quattro', 'Production Period': '2014/07-2018/05', 'Engine': '2967 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'A7 Sportback', 'Platform': '4GA, 4GF', 'Type': '3.0 TDI quattro', 'Production Period': '2013/05-2017/06', 'Engine': '2967 ccm, 176 KW, 239 PS'}, {'Make': 'Audi', 'Model': 'A7 Sportback', 'Platform': '4GA, 4GF', 'Type': '3.0 TDI quattro', 'Production Period': '2010/10-2016/06', 'Engine': '2967 ccm, 180 KW, 245 PS'}, {'Make': 'Audi', 'Model': 'A7 Sportback', 'Platform': '4GA, 4GF', 'Type': '3.0 TDI quattro', 'Production Period': '2011/11-2015/03', 'Engine': '2967 ccm, 230 KW, 313 PS'}, {'Make': 'Audi', 'Model': 'A7 Sportback', 'Platform': '4GA, 4GF', 'Type': '3.0 TDI quattro', 'Production Period': '2014/05-2018/05', 'Engine': '2967 ccm, 235 KW, 320 PS'}, {'Make': 'Audi', 'Model': 'A7 Sportback', 'Platform': '4GA, 4GF', 'Type': '3.0 TDI quattro', 'Production Period': '2014/09-2018/05', 'Engine': '2967 ccm, 240 KW, 326 PS'}, {'Make': 'Audi', 'Model': 'A7 Sportback', 'Platform': '4GA, 4GF', 'Type': '3.0 TFSI quattro', 'Production Period': '2010/10-2012/05', 'Engine': '2995 ccm, 220 KW, 300 PS'}, {'Make': 'Audi', 'Model': 'A7 Sportback', 'Platform': '4GA, 4GF', 'Type': '3.0 TFSI quattro', 'Production Period': '2011/01-2015/03', 'Engine': '2995 ccm, 228 KW, 310 PS'}, {'Make': 'Audi', 'Model': 'A7 Sportback', 'Platform': '4GA, 4GF', 'Type': '3.0 TFSI quattro', 'Production Period': '2014/05-2018/05', 'Engine': '2995 ccm, 245 KW, 333 PS'}, {'Make': 'Audi', 'Model': 'A7 Sportback', 'Platform': '4GA, 4GF', 'Type': '3.0 TFSI quattro', 'Production Period': '2016/05-2018/05', 'Engine': '2995 ccm, 250 KW, 340 PS'}, {'Make': 'Audi', 'Model': 'A8', 'Platform': '4H2, 4H8, 4HC, 4HL', 'Type': '2.0 TFSI Hybrid', 'Production Period': '2012/02-2015/11', 'Engine': '1984 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'A8', 'Platform': '4H2, 4H8, 4HC, 4HL', 'Type': '2.5 TFSI', 'Production Period': '2012/07-2016/06', 'Engine': '2498 ccm, 150 KW, 204 PS'}, {'Make': 'Audi', 'Model': 'A8', 'Platform': '400, 400000000', 'Type': '2.8 FSI', 'Production Period': '2007/08-2010/07', 'Engine': '2773 ccm, 154 KW, 210 PS'}, {'Make': 'Audi', 'Model': 'A8', 'Platform': '4H2, 4H8, 4HC, 4HL', 'Type': '3.0 TDI', 'Production Period': '2011/09-2013/09', 'Engine': '2967 ccm, 150 KW, 204 PS'}, {'Make': 'Audi', 'Model': 'A8', 'Platform': '4H2, 4H8, 4HC, 4HL', 'Type': '3.0 TDI quattro', 'Production Period': '2012/11-2016/06', 'Engine': '2967 ccm, 176 KW, 239 PS'}, {'Make': 'Audi', 'Model': 'A8', 'Platform': '4H2, 4H8, 4HC, 4HL', 'Type': '3.0 TFSI quattro', 'Production Period': '2010/07-2014/04', 'Engine': '2995 ccm, 213 KW, 290 PS'}, {'Make': 'Audi', 'Model': 'A8', 'Platform': '4H2, 4H8, 4HC, 4HL', 'Type': '3.0 TFSI quattro', 'Production Period': '2011/11-2018/01', 'Engine': '2995 ccm, 228 KW, 310 PS'}, {'Make': 'Audi', 'Model': 'A8', 'Platform': '4H2, 4H8, 4HC, 4HL', 'Type': '3.0 TFSI quattro', 'Production Period': '2010/06-2018/01', 'Engine': '2995 ccm, 245 KW, 333 PS'}, {'Make': 'Audi', 'Model': 'A8', 'Platform': '400, 400000000', 'Type': '3.2 FSI', 'Production Period': '2005/06-2010/07', 'Engine': '3123 ccm, 191 KW, 260 PS'}, {'Make': 'Audi', 'Model': 'A8', 'Platform': '400, 400000000', 'Type': '3.2 FSI quattro', 'Production Period': '2005/06-2010/07', 'Engine': '3123 ccm, 191 KW, 260 PS'}, {'Make': 'Audi', 'Model': 'A8', 'Platform': '4H2, 4H8, 4HC, 4HL', 'Type': '4.2 TDI quattro', 'Production Period': '2009/11-2014/04', 'Engine': '4134 ccm, 258 KW, 351 PS'}, {'Make': 'Audi', 'Model': 'A8', 'Platform': '4E2, 4E8', 'Type': '4.2 FSI quattro', 'Production Period': '2006/06-2010/07', 'Engine': '4163 ccm, 257 KW, 350 PS'}, {'Make': 'Audi', 'Model': 'A8', 'Platform': '400, 400000000', 'Type': 'S8 quattro', 'Production Period': '2006/06-2010/07', 'Engine': '5204 ccm, 331 KW, 450 PS'}, {'Make': 'Audi', 'Model': 'Q3', 'Platform': '8UB, 8UG', 'Type': '2.0 TFSI quattro', 'Production Period': '2011/06-2015/04', 'Engine': '1984 ccm, 125 KW, 170 PS'}, {'Make': 'Audi', 'Model': 'Q3', 'Platform': '8UB, 8UG', 'Type': '2.0 TFSI quattro', 'Production Period': '2011/06-2015/04', 'Engine': '1984 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'Q5', 'Platform': '8RB', 'Type': '3.0 TDI quattro', 'Production Period': '2008/11-2012/09', 'Engine': '2967 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'Q5', 'Platform': '8RB', 'Type': '3.0 TDI quattro', 'Production Period': '2008/11-2017/05', 'Engine': '2967 ccm, 176 KW, 240 PS'}, {'Make': 'Audi', 'Model': 'Q5', 'Platform': '8RB', 'Type': '3.0 TDI quattro', 'Production Period': '2012/06-2017/05', 'Engine': '2967 ccm, 184 KW, 250 PS'}, {'Make': 'Audi', 'Model': 'Q5', 'Platform': '8RB', 'Type': 'SQ5 TDI quattro', 'Production Period': '2012/12-2015/11', 'Engine': '2967 ccm, 230 KW, 313 PS'}, {'Make': 'Audi', 'Model': 'Q7', 'Platform': '4LB', 'Type': '3.0 TDI quattro', 'Production Period': '2010/05-2015/08', 'Engine': '2967 ccm, 150 KW, 204 PS'}, {'Make': 'Audi', 'Model': 'Q7', 'Platform': '4LB', 'Type': '3.0 TDI quattro', 'Production Period': '2006/03-2010/05', 'Engine': '2967 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'Q7', 'Platform': '4LB', 'Type': '3.0 TDI quattro', 'Production Period': '2009/06-2012/05', 'Engine': '2967 ccm, 165 KW, 224 PS'}, {'Make': 'Audi', 'Model': 'Q7', 'Platform': '4LB', 'Type': '3.0 TDI quattro', 'Production Period': '2007/11-2015/08', 'Engine': '2967 ccm, 176 KW, 240 PS'}, {'Make': 'Audi', 'Model': 'Q7', 'Platform': '4LB', 'Type': '3.0 TDI quattro', 'Production Period': '2011/05-2015/08', 'Engine': '2967 ccm, 180 KW, 245 PS'}, {'Make': 'Audi', 'Model': 'Q7', 'Platform': '4LB', 'Type': '3.0 TFSI quattro', 'Production Period': '2010/05-2015/08', 'Engine': '2995 ccm, 200 KW, 272 PS'}, {'Make': 'Audi', 'Model': 'Q7', 'Platform': '4LB', 'Type': '3.0 TFSI quattro', 'Production Period': '2011/05-2015/08', 'Engine': '2995 ccm, 206 KW, 280 PS'}, {'Make': 'Audi', 'Model': 'Q7', 'Platform': '4LB', 'Type': '3.0 TFSI quattro', 'Production Period': '2010/05-2015/08', 'Engine': '2995 ccm, 245 KW, 333 PS'}, {'Make': 'Audi', 'Model': 'Q7', 'Platform': '4LB', 'Type': '4.2 FSI quattro', 'Production Period': '2006/03-2010/05', 'Engine': '4163 ccm, 257 KW, 350 PS'}, {'Make': 'Audi', 'Model': 'Q7', 'Platform': '4LB', 'Type': '6.0 TDI quattro', 'Production Period': '2008/09-2014/05', 'Engine': '5934 ccm, 368 KW, 500 PS'}, {'Make': 'Audi', 'Model': 'TT', 'Platform': '8J3', 'Type': '1.8 TFSI', 'Production Period': '2008/06-2014/06', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Audi', 'Model': 'TT', 'Platform': '8J3', 'Type': '2.0 TFSI quattro', 'Production Period': '2008/06-2010/06', 'Engine': '1984 ccm, 147 KW, 200 PS'}, {'Make': 'Audi', 'Model': 'TT', 'Platform': '8J3', 'Type': '2.0 TFSI', 'Production Period': '2010/05-2014/06', 'Engine': '1984 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'TT Roadster', 'Platform': '8J9', 'Type': '1.8 TFSI', 'Production Period': '2008/06-2014/06', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Audi', 'Model': 'TT Roadster', 'Platform': '8J9', 'Type': '2.0 TFSI', 'Production Period': '2007/03-2010/06', 'Engine': '1984 ccm, 147 KW, 200 PS'}, {'Make': 'Audi', 'Model': 'TT Roadster', 'Platform': '8J9', 'Type': '2.0 TFSI quattro', 'Production Period': '2010/05-2014/06', 'Engine': '1984 ccm, 155 KW, 211 PS'}, {'Make': 'Audi', 'Model': 'TT Roadster', 'Platform': '8J9', 'Type': '2.0 TFSI', 'Production Period': '2010/05-2014/06', 'Engine': '1984 ccm, 155 KW, 211 PS'}, {'Make': 'Porsche', 'Model': 'Cayenne', 'Platform': '92A', 'Type': '3.0 Diesel', 'Production Period': '2010/06-2010/12', 'Engine': '2967 ccm, 176 KW, 239 PS'}, {'Make': 'Porsche', 'Model': 'Cayenne', 'Platform': '9PA', 'Type': '3.0 TDi', 'Production Period': '2009/02-2010/09', 'Engine': '2967 ccm, 176 KW, 240 PS'}, {'Make': 'Porsche', 'Model': 'Macan', 'Platform': '95B', 'Type': '3.0 S Diesel', 'Production Period': '2014/02-2018/09', 'Engine': '2967 ccm, 155 KW, 211 PS'}, {'Make': 'Porsche', 'Model': 'Macan', 'Platform': '95B', 'Type': '3.0 S Diesel', 'Production Period': '2014/02-2018/09', 'Engine': '2967 ccm, 180 KW, 245 PS'}, {'Make': 'Porsche', 'Model': 'Macan', 'Platform': '95B', 'Type': '3.0 S Diesel', 'Production Period': '2014/02-2018/09', 'Engine': '2967 ccm, 190 KW, 258 PS'}, {'Make': 'Seat', 'Model': 'Alhambra', 'Platform': '710, 711', 'Type': '2.0 TSi', 'Production Period': '2010/11-2012/05', 'Engine': '1984 ccm, 147 KW, 200 PS'}, {'Make': 'Seat', 'Model': 'Exeo', 'Platform': '3R2', 'Type': '2.0 TFSi', 'Production Period': '2010/05-2013/05', 'Engine': '1984 ccm, 155 KW, 211 PS'}, {'Make': 'Seat', 'Model': 'Leon', 'Platform': '1P1', 'Type': '1.8 TSi', 'Production Period': '2007/06-2012/12', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Seat', 'Model': 'Leon', 'Platform': '1P1', 'Type': '2.0 TFSi', 'Production Period': '2009/06-2012/12', 'Engine': '1984 ccm, 155 KW, 211 PS'}, {'Make': 'Seat', 'Model': 'Toledo III', 'Platform': '5P2', 'Type': '1.8 TFSi', 'Production Period': '2007/01-2009/05', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Skoda', 'Model': 'Octavia II', 'Platform': '1Z3', 'Type': '1.8 TSI', 'Production Period': '2009/03-2013/06', 'Engine': '1798 ccm, 112 KW, 152 PS'}, {'Make': 'Skoda', 'Model': 'Octavia II', 'Platform': '1Z3', 'Type': '1.8 TSI', 'Production Period': '2007/06-2013/04', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Skoda', 'Model': 'Octavia II', 'Platform': '1Z3', 'Type': '2.0 RS', 'Production Period': '2005/10-2013/02', 'Engine': '1984 ccm, 147 KW, 200 PS'}, {'Make': 'Skoda', 'Model': 'Octavia II Combi', 'Platform': '1Z5', 'Type': '1.8 TSI', 'Production Period': '2009/03-2013/06', 'Engine': '1798 ccm, 112 KW, 152 PS'}, {'Make': 'Skoda', 'Model': 'Octavia II Combi', 'Platform': '1Z5', 'Type': '1.8 TSI 4x4', 'Production Period': '2009/03-2013/02', 'Engine': '1798 ccm, 112 KW, 152 PS'}, {'Make': 'Skoda', 'Model': 'Octavia II Combi', 'Platform': '1Z5', 'Type': '1.8 TSI', 'Production Period': '2007/06-2013/04', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Skoda', 'Model': 'Octavia II Combi', 'Platform': '1Z5', 'Type': '1.8 TSI 4x4', 'Production Period': '2008/11-2013/02', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Skoda', 'Model': 'Superb II', 'Platform': '3T4', 'Type': '1.8 TSI 4x4', 'Production Period': '2009/03-2015/05', 'Engine': '1798 ccm, 112 KW, 152 PS'}, {'Make': 'Skoda', 'Model': 'Superb II', 'Platform': '3T4', 'Type': '1.8 TSI', 'Production Period': '2008/03-2015/05', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Skoda', 'Model': 'Superb II', 'Platform': '3T4', 'Type': '2.0 TSI', 'Production Period': '2010/05-2015/05', 'Engine': '1984 ccm, 147 KW, 200 PS'}, {'Make': 'Skoda', 'Model': 'Superb II Kombi', 'Platform': '3T5', 'Type': '1.8 TSI', 'Production Period': '2009/10-2015/05', 'Engine': '1798 ccm, 112 KW, 152 PS'}, {'Make': 'Skoda', 'Model': 'Superb II Kombi', 'Platform': '3T5', 'Type': '1.8 TSI 4x4', 'Production Period': '2009/10-2015/05', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Skoda', 'Model': 'Superb II Kombi', 'Platform': '3T5', 'Type': '1.8 TSI', 'Production Period': '2009/10-2015/05', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'Skoda', 'Model': 'Superb II Kombi', 'Platform': '3T5', 'Type': '2.0 TSI', 'Production Period': '2010/05-2015/05', 'Engine': '1984 ccm, 147 KW, 200 PS'}, {'Make': 'Skoda', 'Model': 'Yeti', 'Platform': '5L', 'Type': '1.8 TSI 4x4', 'Production Period': '2009/11-2017/12', 'Engine': '1798 ccm, 112 KW, 152 PS'}, {'Make': 'Skoda', 'Model': 'Yeti', 'Platform': '5L', 'Type': '1.8 TSI 4x4', 'Production Period': '2009/05-2017/12', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'VW', 'Model': 'Amarok', 'Platform': '2HA, 2HB, S1B, S6B, S7A, S7B', 'Type': '2.0 TSI', 'Production Period': '2010/12-2016/10', 'Engine': '1984 ccm, 118 KW, 160 PS'}, {'Make': 'VW', 'Model': 'Beetle', 'Platform': '5C1, 5C2', 'Type': '2.0 TSI', 'Production Period': '2011/04-2016/07', 'Engine': '1984 ccm, 147 KW, 200 PS'}, {'Make': 'VW', 'Model': 'Beetle Cabriolet', 'Platform': '5C7, 5C8', 'Type': '2.0 TSI', 'Production Period': '2011/12-2016/07', 'Engine': '1984 ccm, 147 KW, 200 PS'}, {'Make': 'VW', 'Model': 'CC', 'Platform': '358', 'Type': '1.8 TSI', 'Production Period': '2011/11-2016/12', 'Engine': '1798 ccm, 112 KW, 152 PS'}, {'Make': 'VW', 'Model': 'CC', 'Platform': '358', 'Type': '2.0 TSI', 'Production Period': '2011/11-2016/12', 'Engine': '1984 ccm, 147 KW, 200 PS'}, {'Make': 'VW', 'Model': 'CC', 'Platform': '358', 'Type': '2.0 TSI', 'Production Period': '2011/11-2016/12', 'Engine': '1984 ccm, 155 KW, 210 PS'}, {'Make': 'VW', 'Model': 'EOS', 'Platform': '1F7, 1F8', 'Type': '2.0 TFSI', 'Production Period': '2006/03-2015/08', 'Engine': '1984 ccm, 147 KW, 200 PS'}, {'Make': 'VW', 'Model': 'Golf V', 'Platform': '1K1', 'Type': '2.0 GTI', 'Production Period': '2004/10-2009/02', 'Engine': '1984 ccm, 147 KW, 200 PS'}, {'Make': 'VW', 'Model': 'Golf VI', 'Platform': '5K1', 'Type': '1.8 TSI', 'Production Period': '2009/06-2011/01', 'Engine': '1798 ccm, 118 KW, 160 PS'}, {'Make': 'VW', 'Model': 'Golf VI', 'Platform': '5K1', 'Type': '2.0 GTI', 'Production Period': '2009/06-2013/11', 'Engine': '1984 ccm, 147 KW, 200 PS'}, {'Make': 'VW', 'Model': 'Golf VI', 'Platform': '5K1', 'Type': '2.0 GTI', 'Production Period': </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>1493774</v>
+      </c>
+      <c r="C18" t="n">
+        <v>324765907202</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NzAwWDk2NA==/z/OYMAAOSwjExhJnI2/$_57.JPG?set_id=8800005007']</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>57990</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Clothing, Shoes &amp; Accessories:Men:Men's Clothing:Shirts:Casual Button-Down Shirts</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Avalanche</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Button-Up</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Avalanche Men's Performance Short Sleeve Woven Shirt</t>
+        </is>
+      </c>
+      <c r="Y18" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>1493778</v>
+      </c>
+      <c r="C19" t="n">
+        <v>285641760298</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTUwMFgxNTAw/z/SMgAAOSwTHNiUe-Y/$_12.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>170141</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Wheel Bearings, Hubs &amp; Seals</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Oldsmobile</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1493778,401026,T3932,</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>5123</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Toronado</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>National Seal/Bearing</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Wheel Seal</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
+        <v>1969</v>
+      </c>
+      <c r="W19" t="n">
+        <v>81</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Wheel Seal National 5123</t>
+        </is>
+      </c>
+      <c r="Y19" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>[{'Year': '1978', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Coupe 2-Door', 'Engine': '7.0L 425Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1978', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Biarritz Coupe 2-Door', 'Engine': '7.0L 425Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1978', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Cabriolet Coupe 2-Door', 'Engine': '7.0L 425Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1978', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Brougham Coupe 2-Door', 'Engine': '6.6L 403Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1978', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'XSR Coupe 2-Door', 'Engine': '6.6L 403Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1977', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Coupe 2-Door', 'Engine': '7.0L 425Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1977', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Biarritz Coupe 2-Door', 'Engine': '7.0L 425Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1977', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Brougham Coupe 2-Door', 'Engine': '6.6L 403Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1977', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'XS Coupe 2-Door', 'Engine': '6.6L 403Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1977', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'XSR Coupe 2-Door', 'Engine': '6.6L 403Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1976', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Convertible 2-Door', 'Engine': '8.2L 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1976', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Biarritz Coupe 2-Door', 'Engine': '8.2L 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1976', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Bicentenial Edition Convertible 2-Door', 'Engine': '8.2L 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1976', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Cabriolet Coupe 2-Door', 'Engine': '8.2L 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1976', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Brougham Coupe 2-Door', 'Engine': '7.5L 7456CC 455Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1976', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Custom Coupe 2-Door', 'Engine': '7.5L 7456CC 455Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1975', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Convertible 2-Door', 'Engine': '8.2L 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1975', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Coupe 2-Door', 'Engine': '8.2L 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1975', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Brougham Coupe 2-Door', 'Engine': '7.5L 7456CC 455Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1975', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Custom Coupe 2-Door', 'Engine': '7.5L 7456CC 455Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1974', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base', 'Engine': '8.2L 500Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1974', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base', 'Engine': '8.2L 8193CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1974', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base', 'Engine': '8.2L 8195CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1974', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Convertible 2-Door', 'Engine': '8.2L 500Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1974', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Convertible 2-Door', 'Engine': '8.2L 8193CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1974', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Convertible 2-Door', 'Engine': '8.2L 8195CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1974', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Hardtop 2-Door', 'Engine': '8.2L 500Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1974', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Hardtop 2-Door', 'Engine': '8.2L 8193CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1974', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Hardtop 2-Door', 'Engine': '8.2L 8195CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1974', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Base', 'Engine': '7.5L 455Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1974', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Base', 'Engine': '7.5L 7456CC 455Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1974', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Base Coupe 2-Door', 'Engine': '7.5L 455Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1974', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Base Coupe 2-Door', 'Engine': '7.5L 7456CC 455Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1974', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Brougham', 'Engine': '7.5L 455Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1973', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base', 'Engine': '8.2L 500Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1973', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base', 'Engine': '8.2L 8193CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1973', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base', 'Engine': '8.2L 8195CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1973', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Convertible 2-Door', 'Engine': '8.2L 500Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1973', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Convertible 2-Door', 'Engine': '8.2L 8193CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1973', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Convertible 2-Door', 'Engine': '8.2L 8195CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1973', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Hardtop 2-Door', 'Engine': '8.2L 500Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1973', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Hardtop 2-Door', 'Engine': '8.2L 8193CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1973', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Hardtop 2-Door', 'Engine': '8.2L 8195CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1973', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Base', 'Engine': '7.5L 455Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1973', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Base', 'Engine': '7.5L 7456CC 455Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1973', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Brougham', 'Engine': '7.5L 455Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1972', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base', 'Engine': '8.2L 500Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1972', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base', 'Engine': '8.2L 8193CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1972', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base', 'Engine': '8.2L 8195CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1972', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Convertible 2-Door', 'Engine': '8.2L 500Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1972', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Convertible 2-Door', 'Engine': '8.2L 8193CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1972', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Convertible 2-Door', 'Engine': '8.2L 8195CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1972', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Hardtop 2-Door', 'Engine': '8.2L 500Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1972', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Hardtop 2-Door', 'Engine': '8.2L 8193CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1972', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Hardtop 2-Door', 'Engine': '8.2L 8195CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1972', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Base', 'Engine': '7.5L 455Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1972', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Base', 'Engine': '7.5L 7456CC 455Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1972', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Brougham', 'Engine': '7.5L 455Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1971', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base', 'Engine': '8.2L 500Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1971', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base', 'Engine': '8.2L 8193CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1971', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Convertible 2-Door', 'Engine': '8.2L 500Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1971', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Convertible 2-Door', 'Engine': '8.2L 8193CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1971', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Hardtop 2-Door', 'Engine': '8.2L 500Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1971', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Hardtop 2-Door', 'Engine': '8.2L 8193CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1971', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Base', 'Engine': '7.5L 455Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1971', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Base', 'Engine': '7.5L 7456CC 455Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1971', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Brougham', 'Engine': '7.5L 455Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1970', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base', 'Engine': '8.2L 500Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1970', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base', 'Engine': '8.2L 8193CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1970', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Hardtop 2-Door', 'Engine': '8.2L 500Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1970', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Hardtop 2-Door', 'Engine': '8.2L 8193CC 500Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1970', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Base', 'Engine': '7.5L 455Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1970', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Base', 'Engine': '7.5L 7456CC 455Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1970', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Custom', 'Engine': '7.5L 455Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1969', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base', 'Engine': '7.7L 472Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1969', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base', 'Engine': '7.7L 7735CC 472Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1969', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Hardtop 2-Door', 'Engine': '7.7L 472Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1969', 'Make': 'Cadillac', 'Model': 'Eldorado', 'Trim': 'Base Hardtop 2-Door', 'Engine': '7.7L 7735CC 472Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1969', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Base', 'Engine': '7.5L 455Cu. In. V8 GAS Naturally Aspirated'}, {'Year': '1969', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Base', 'Engine': '7.5L 7456CC 455Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1969', 'Make': 'Oldsmobile', 'Model': 'Toronado', 'Trim': 'Custom', 'Engine': '7.5L 455Cu. In. V8 GAS Naturally Aspirated'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>1493792</v>
+      </c>
+      <c r="C20" t="n">
+        <v>305319459258</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NDgwWDY0MA==/z/xCIAAOSwbDBlgGeQ/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>33706</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Interior Parts &amp; Accessories:Window Motors &amp; Regulators</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Cadillac</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1G6KE54Y62U302849</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>19244841</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>125-02029R</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>19244841</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>DeVille</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>CADILLAC</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="n">
+        <v>2002</v>
+      </c>
+      <c r="W20" t="n">
+        <v>20</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Passenger Right Front Window Regulator Fits 02-05 DEVILLE 1493792</t>
+        </is>
+      </c>
+      <c r="Y20" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>[{'Year': '2005', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'Base Hearse 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'Base Limousine 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'Base Sedan 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'DHS Sedan 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'DTS Sedan 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'Base Hearse 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'Base Limousine 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'Base Sedan 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'DHS Sedan 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'DTS Sedan 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'Base Hearse 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'Base Limousine 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'Base Sedan 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'DHS Sedan 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'DTS Sedan 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'Base Hearse 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'Base Limousine 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'Base Sedan 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'DHS Sedan 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Cadillac', 'Model': 'DeVille', 'Trim': 'DTS Sedan 4-Door', 'Engine': '4.6L 281Cu. In. V8 GAS DOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>1493806</v>
+      </c>
+      <c r="C21" t="n">
+        <v>296115341322</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NDgwWDY0MA==/z/MgUAAOSw8MBlgEq4/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>33701</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Interior Parts &amp; Accessories:Seats, Parts &amp; Accessories:Seats</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>CADILLAC</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1G6KE54Y62U302849</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>202-02393BL</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Does Not Apply</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>CADILLAC</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="n">
+        <v>2002</v>
+      </c>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Driver Front Seat  Bucket Leather Electric Fits 00-03 DEVILLE 1493806</t>
+        </is>
+      </c>
+      <c r="Y21" t="n">
+        <v>612.74</v>
+      </c>
+      <c r="Z21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>1493810</v>
+      </c>
+      <c r="C22" t="n">
+        <v>403686284041</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NjAwWDgwMA==/z/QDIAAOSwu8Nk7eXJ/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>9887</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Interior Parts &amp; Accessories:Other Interior Parts &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Chevrolet</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1G1RB6E49CU111362</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>251-00442</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Does Not Apply</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Volt</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Factory/OEM</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="n">
+        <v>2012</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Dash Panel Fits 12 VOLT 1493810</t>
+        </is>
+      </c>
+      <c r="Y22" t="n">
+        <v>444</v>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>[{'Year': '2012', 'Make': 'Chevrolet', 'Model': 'Volt', 'Trim': 'Base Hatchback 4-Door', 'Engine': '1.4L 1398CC 85Cu. In. l4 PLUG-IN HYBRID EV-GAS (PHEV) DOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Chevrolet', 'Model': 'Volt', 'Trim': 'Base Hatchback 4-Door', 'Engine': '1.4L 1398CC 85Cu. In. l4 PLUG-IN HYBRID EV-GAS (PHEV) DOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>1493827</v>
+      </c>
+      <c r="C23" t="n">
+        <v>315020434364</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NzY4WDEwMjQ=/z/cbUAAOSwkmJldJX7/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>184808</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Commercial Truck Parts:Exterior, Body &amp; Frame:Mirrors</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1493827</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>9200I</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>MIRROR ASSEMBLY CAB/DOOR</t>
+        </is>
+      </c>
+      <c r="V23" t="n">
+        <v>2007</v>
+      </c>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL 9200I 2007 MIRROR ASSEMBLY CAB/DOOR 2530793</t>
+        </is>
+      </c>
+      <c r="Y23" t="n">
+        <v>191.25</v>
+      </c>
+      <c r="Z23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>1493915</v>
+      </c>
+      <c r="C24" t="n">
+        <v>116029797044</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NjAwWDYwMA==/z/7SUAAOSwQDNllxJm/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>184670</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Commercial Truck Parts:Other Commercial Truck Parts</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>1493915</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Sleeve FOR Caterpillar 1493915</t>
+        </is>
+      </c>
+      <c r="Y24" t="n">
+        <v>256.01</v>
+      </c>
+      <c r="Z24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>1493916</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>315059665002</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NjQwWDQ4MA==/z/~v4AAOSw3mFljbUK/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>184808</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Commercial Truck Parts:Exterior, Body &amp; Frame:Mirrors</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>VOLVO</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1493916</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>VNL</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>VOLVO</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>MIRROR ASSEMBLY CAB/DOOR</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>VOLVO VNL 2006 MIRROR ASSEMBLY CAB/DOOR 2530882</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>271.17</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
